--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3715880.813016522</v>
+        <v>3713504.186069156</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>143.1175458707144</v>
       </c>
       <c r="F2" t="n">
-        <v>338.7685183849813</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>25.7888254598515</v>
+        <v>39.15797524740199</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,7 +829,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>115.653228379492</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>220.8789552701355</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>10.24924571897613</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>49.15028699323034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>41.00930247648315</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>286.5888679426066</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.9807481254279</v>
+        <v>50.16463037378232</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444124</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.6605461321774</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.696957004698</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1922.158427600213</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C2" t="n">
-        <v>1553.195910659801</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="D2" t="n">
-        <v>1194.930212053051</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="E2" t="n">
-        <v>809.1419594548065</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4349,31 +4349,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664335</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2308.758267664335</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>2308.758267664335</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4389,49 +4389,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>182.9275483748792</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>367.6491696559292</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>662.3527266874009</v>
+        <v>662.3527266874019</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.614745646621</v>
+        <v>1025.614745646622</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>690.2022503986784</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.643294372448</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X4" t="n">
-        <v>1092.643294372448</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y4" t="n">
-        <v>871.8507152289181</v>
+        <v>535.7199774115534</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>505.192799657037</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="C5" t="n">
-        <v>136.2302827166252</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="D5" t="n">
-        <v>136.2302827166252</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>479.072874127204</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>472.1273733780005</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4598,19 +4598,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2339.229272571735</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2008.166385228164</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1655.39772995805</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>1281.931971696971</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y5" t="n">
-        <v>891.7926397211588</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.9516006271326</v>
+        <v>359.6292930162432</v>
       </c>
       <c r="C7" t="n">
-        <v>498.0154176992257</v>
+        <v>359.6292930162432</v>
       </c>
       <c r="D7" t="n">
-        <v>347.89877828689</v>
+        <v>209.5126536039075</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>61.59956002151435</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>61.59956002151435</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>61.59956002151435</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>61.59956002151435</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,37 +4738,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1586.79936553588</v>
+        <v>990.0598878880304</v>
       </c>
       <c r="W7" t="n">
-        <v>1297.38219549892</v>
+        <v>990.0598878880304</v>
       </c>
       <c r="X7" t="n">
-        <v>1069.392644600902</v>
+        <v>762.0703369900131</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.6000654573724</v>
+        <v>541.2777578464829</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854573</v>
+        <v>904.8820361188209</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450455</v>
+        <v>535.9195191784092</v>
       </c>
       <c r="D8" t="n">
-        <v>359.3403385450455</v>
+        <v>177.6538205716587</v>
       </c>
       <c r="E8" t="n">
-        <v>359.3403385450455</v>
+        <v>136.2302827166253</v>
       </c>
       <c r="F8" t="n">
-        <v>352.3948377958421</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>340.730491560535</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400153</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926623</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532448</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796628</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453057</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1291.481876182943</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1291.481876182943</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1291.481876182943</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4872,34 +4872,34 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500112</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380231</v>
+        <v>298.3188265310611</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694948</v>
+        <v>593.0223835625325</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1227.20136734157</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1614.486495938515</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1946.556931114677</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4920,7 +4920,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>101.9181303799044</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>101.9181303799044</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>101.9181303799044</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>101.9181303799044</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>101.9181303799044</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312189</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784814</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>732.3487252516916</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>504.3591743536742</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>283.5665952101441</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5066,22 +5066,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>847.644273983533</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,19 +6312,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>590.909656468498</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7415,13 +7415,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,16 +7549,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>70.0306496210786</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>70.0306496210797</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071647</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>224.3355197601772</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179981</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>255.8421700460962</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-1.493428517895453e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600914</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624161</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409392984</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671402</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671402</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710695</v>
@@ -26323,37 +26323,37 @@
         <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>766789.2697055056</v>
       </c>
-      <c r="L2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="O2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.25168002746068e-10</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467445</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719749</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719732</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719689</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719685</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719657</v>
+        <v>7507.368461719582</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719619</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984467</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26497,7 +26497,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-560813.7381914393</v>
+        <v>-560813.7381914392</v>
       </c>
       <c r="C6" t="n">
-        <v>553938.0453844807</v>
+        <v>553938.0453844803</v>
       </c>
       <c r="D6" t="n">
-        <v>553938.0453844805</v>
+        <v>553938.0453844809</v>
       </c>
       <c r="E6" t="n">
-        <v>150673.9297953332</v>
+        <v>150639.1918698972</v>
       </c>
       <c r="F6" t="n">
-        <v>658159.3714198793</v>
+        <v>658124.633494443</v>
       </c>
       <c r="G6" t="n">
-        <v>658159.371419879</v>
+        <v>658124.6334944436</v>
       </c>
       <c r="H6" t="n">
-        <v>658159.3714198793</v>
+        <v>658124.6334944433</v>
       </c>
       <c r="I6" t="n">
-        <v>658159.3714198791</v>
+        <v>658124.6334944434</v>
       </c>
       <c r="J6" t="n">
-        <v>490554.1936098966</v>
+        <v>490519.4556844607</v>
       </c>
       <c r="K6" t="n">
-        <v>658159.3714198788</v>
+        <v>658124.6334944434</v>
       </c>
       <c r="L6" t="n">
-        <v>658159.3714198788</v>
+        <v>658124.6334944431</v>
       </c>
       <c r="M6" t="n">
-        <v>525552.0776909521</v>
+        <v>525517.3397655169</v>
       </c>
       <c r="N6" t="n">
-        <v>658159.3714198793</v>
+        <v>658124.633494443</v>
       </c>
       <c r="O6" t="n">
-        <v>658159.3714198791</v>
+        <v>658124.6334944437</v>
       </c>
       <c r="P6" t="n">
-        <v>658159.3714198791</v>
+        <v>658124.6334944434</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000383</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,10 +26817,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>238.8128242015474</v>
       </c>
       <c r="F2" t="n">
-        <v>68.10752735673015</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>141.4579956387763</v>
+        <v>128.0888458512258</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>295.8944743934619</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>30.16629485832652</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>94.54734948492444</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27828,13 +27828,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>202.9873563305977</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>340.9210675957787</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>14.42968461979882</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193763</v>
+        <v>116.1419696710219</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.736439038534721e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28339,10 +28339,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28807,13 +28807,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R8" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31628,10 +31628,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675763</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31844,31 +31844,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550401</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32078,28 +32078,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32552,16 +32552,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33032,7 +33032,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>240.446970176038</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.8861049150239</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175656</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>423.9151577118732</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>133.010870511996</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>367.7110102589299</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530511</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091734</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313203</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000383</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>505.5216991696283</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717068</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,7 +35978,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>101.8925903961638</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316906</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902929</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>285.360777931999</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
